--- a/excel/file/luaCodeToCocos2dx.xlsx
+++ b/excel/file/luaCodeToCocos2dx.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -300,6 +300,18 @@
   </si>
   <si>
     <t>/Users/jiasy/Documents/develop/selfDevelop/cocosLuaTest/LuaClient/src/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_backUp\/</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/backup_created$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SingleTest_[0-9a-zA-Z/_]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -5737,9 +5749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
   <cols>
@@ -6054,7 +6068,22 @@
     </row>
     <row r="28" spans="1:7" ht="25" customHeight="1" thickBot="1">
       <c r="D28" s="25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D29" s="25" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D30" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D31" s="25" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/excel/file/luaCodeToCocos2dx.xlsx
+++ b/excel/file/luaCodeToCocos2dx.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>子脚本输出</t>
     <rPh sb="0" eb="1">
@@ -312,6 +312,13 @@
   </si>
   <si>
     <t>SingleTest_[0-9a-zA-Z/_]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝命令</t>
+    <rPh sb="0" eb="3">
+      <t>kao'bei'ming'ling</t>
+    </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4114,49 +4121,49 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="2" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="1133" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -5683,7 +5690,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5727,7 +5734,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -5749,11 +5756,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.75" defaultRowHeight="25" customHeight="1"/>
   <cols>
@@ -5806,11 +5811,11 @@
       <c r="B4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="30" t="str">
+      <c r="C4" s="34" t="str">
         <f ca="1">REPLACE(CELL("filename"),FIND("[",CELL("filename"))-1,99,)</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="3"/>
       <c r="F4" s="1" t="s">
         <v>21</v>
@@ -5820,11 +5825,11 @@
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="28" t="str">
+      <c r="C5" s="40" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/base/ExcelWorkFlow.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/base/ExcelWorkFlow.py</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="3"/>
       <c r="F5" s="1" t="s">
         <v>22</v>
@@ -5834,55 +5839,55 @@
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="28" t="str">
+      <c r="C6" s="40" t="str">
         <f ca="1">C4&amp;"/../../test"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../test</v>
       </c>
-      <c r="D6" s="32"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="28" t="str">
+      <c r="C7" s="40" t="str">
         <f ca="1">C4&amp;"/../../temp"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../temp</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="2:11" ht="15">
       <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="28" t="str">
+      <c r="C8" s="40" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ClientTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/ClientTools</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="2:11" ht="15">
       <c r="B9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="28" t="str">
+      <c r="C9" s="40" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/ServerTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/ServerTools</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="2:11" ht="15">
       <c r="B10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="28" t="str">
+      <c r="C10" s="40" t="str">
         <f ca="1">C4&amp;"/../../pythonCode/CommonTools"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/CommonTools</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="2:11" ht="15">
@@ -5911,32 +5916,32 @@
       <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="30" t="str">
+      <c r="C13" s="34" t="str">
         <f ca="1">RIGHT(CELL("filename"),LEN(CELL("filename"))-FIND("]",CELL("filename")))</f>
         <v>pngTest</v>
       </c>
-      <c r="D13" s="31"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="2:11" ht="15">
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="39" t="str">
+      <c r="C14" s="36" t="str">
         <f ca="1">C4&amp;"/"&amp;C11</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/luaCodeToCocos2dx.xlsx</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="2:11" ht="15">
       <c r="B15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="29"/>
       <c r="E15" s="3"/>
       <c r="F15" s="1" t="s">
         <v>20</v>
@@ -5946,21 +5951,21 @@
       <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="34"/>
+      <c r="D16" s="29"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:7" ht="15">
       <c r="B17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="41" t="str">
+      <c r="C17" s="38" t="str">
         <f ca="1">"python "&amp;C5&amp;" -e "&amp;C14</f>
         <v>python /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/base/ExcelWorkFlow.py -e /Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/luaCodeToCocos2dx.xlsx</v>
       </c>
-      <c r="D17" s="42"/>
+      <c r="D17" s="39"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="20">
@@ -5983,10 +5988,10 @@
       <c r="B20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="31"/>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
@@ -5997,11 +6002,11 @@
       <c r="B21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="37" t="str">
+      <c r="C21" s="32" t="str">
         <f ca="1">C10&amp;"/File/FileFilterByReg.py"</f>
         <v>/Users/jiasy/Documents/sourceFrame/pyWorkFlow/excel/file/../../pythonCode/CommonTools/File/FileFilterByReg.py</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
     </row>
@@ -6086,8 +6091,21 @@
         <v>47</v>
       </c>
     </row>
+    <row r="32" spans="1:7" ht="25" customHeight="1" thickBot="1">
+      <c r="D32" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C20:D20"/>
@@ -6096,14 +6114,6 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="2">
